--- a/backups_folder/backup_2025-01-05_08-00-40.xlsx
+++ b/backups_folder/backup_2025-01-05_08-00-40.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>Table: assignments</t>
   </si>
@@ -291,6 +291,24 @@
   </si>
   <si>
     <t>2024-12-08 21:53:21</t>
+  </si>
+  <si>
+    <t>$2y$10$JG4IOAjPtpkuiMGFB2GZMO58/m.v08XUJZ4Y77aURlz./fRFThiXC</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin@test.com</t>
+  </si>
+  <si>
+    <t>$2y$10$uty9hbwMnkzfeRDEcVvfeObe7zNyC72NX7VwbKVklxotNegU7MfcK</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>2025-01-05 19:35:46</t>
   </si>
 </sst>
 </file>
@@ -640,10 +658,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1134,6 +1152,343 @@
         <v>91</v>
       </c>
     </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35">
+        <v>100.0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>100.0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37">
+        <v>10.0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
